--- a/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-Encounter.xlsx
+++ b/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-Encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-10T14:59:37+00:00</t>
+    <t>2025-07-18T12:58:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -871,7 +871,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/fr-core-patient|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/fr-core-patient-ins)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-ins)
 </t>
   </si>
   <si>
@@ -1895,7 +1895,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="133.9921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="105.9765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-Encounter.xlsx
+++ b/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-Encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T12:58:08+00:00</t>
+    <t>2025-07-18T13:16:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-Encounter.xlsx
+++ b/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-Encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T13:16:41+00:00</t>
+    <t>2025-07-18T13:28:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-Encounter.xlsx
+++ b/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-Encounter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2997" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2997" uniqueCount="504">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T13:28:33+00:00</t>
+    <t>2025-07-18T14:08:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil générique créé dans le contexte du transfert de données DUI pour véhiculer un lot de documents au format CDA.</t>
+    <t>Profil de la ressource Encounter permettant de regrouper les informations relatives au séjour d'un usager dans une structure ESSMS</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -599,16 +599,25 @@
     <t>idStay</t>
   </si>
   <si>
+    <t>Identifiant métier unique du séjour</t>
+  </si>
+  <si>
     <t>Encounter.identifier:idAdminStay</t>
   </si>
   <si>
     <t>idAdminStay</t>
   </si>
   <si>
+    <t>Numéro de dossier administratif du séjour</t>
+  </si>
+  <si>
     <t>Encounter.identifier:idProvenanceStay</t>
   </si>
   <si>
     <t>idProvenanceStay</t>
+  </si>
+  <si>
+    <t>Numéro de dossier administratif dans l'ESSMS de provenance</t>
   </si>
   <si>
     <t>Encounter.status</t>
@@ -3895,7 +3904,7 @@
         <v>176</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>178</v>
@@ -3978,13 +3987,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>80</v>
@@ -4009,7 +4018,7 @@
         <v>176</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>178</v>
@@ -4092,13 +4101,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>80</v>
@@ -4123,7 +4132,7 @@
         <v>176</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="M20" t="s" s="2">
         <v>178</v>
@@ -4206,10 +4215,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4235,13 +4244,13 @@
         <v>108</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4267,13 +4276,13 @@
         <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>80</v>
@@ -4291,7 +4300,7 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>88</v>
@@ -4306,24 +4315,24 @@
         <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4346,16 +4355,16 @@
         <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4405,7 +4414,7 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4423,7 +4432,7 @@
         <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>80</v>
@@ -4434,10 +4443,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4460,13 +4469,13 @@
         <v>80</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4517,7 +4526,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4535,7 +4544,7 @@
         <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>80</v>
@@ -4546,10 +4555,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4575,10 +4584,10 @@
         <v>133</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="N24" t="s" s="2">
         <v>172</v>
@@ -4631,7 +4640,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4649,7 +4658,7 @@
         <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>80</v>
@@ -4660,14 +4669,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4689,10 +4698,10 @@
         <v>133</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N25" t="s" s="2">
         <v>172</v>
@@ -4747,7 +4756,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4776,10 +4785,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4805,10 +4814,10 @@
         <v>108</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4835,13 +4844,13 @@
         <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>80</v>
@@ -4859,7 +4868,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>88</v>
@@ -4877,7 +4886,7 @@
         <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>80</v>
@@ -4888,10 +4897,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4914,13 +4923,13 @@
         <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4971,7 +4980,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>88</v>
@@ -4989,7 +4998,7 @@
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>80</v>
@@ -5000,10 +5009,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5026,13 +5035,13 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5059,13 +5068,13 @@
         <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>80</v>
@@ -5083,7 +5092,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>88</v>
@@ -5101,21 +5110,21 @@
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5138,13 +5147,13 @@
         <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5195,7 +5204,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5213,7 +5222,7 @@
         <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
@@ -5224,10 +5233,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5250,13 +5259,13 @@
         <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5307,7 +5316,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5325,7 +5334,7 @@
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>80</v>
@@ -5336,10 +5345,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5365,10 +5374,10 @@
         <v>133</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="N31" t="s" s="2">
         <v>172</v>
@@ -5421,7 +5430,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5439,7 +5448,7 @@
         <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
@@ -5450,14 +5459,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5479,10 +5488,10 @@
         <v>133</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N32" t="s" s="2">
         <v>172</v>
@@ -5537,7 +5546,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5566,10 +5575,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5592,13 +5601,13 @@
         <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5625,13 +5634,13 @@
         <v>80</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>80</v>
@@ -5649,7 +5658,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>88</v>
@@ -5667,7 +5676,7 @@
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
@@ -5678,10 +5687,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5704,13 +5713,13 @@
         <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5761,7 +5770,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>88</v>
@@ -5779,7 +5788,7 @@
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
@@ -5790,10 +5799,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5816,16 +5825,16 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5851,13 +5860,13 @@
         <v>80</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>80</v>
@@ -5875,7 +5884,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5890,24 +5899,24 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5930,13 +5939,13 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5963,31 +5972,31 @@
         <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Y36" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF36" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6002,24 +6011,24 @@
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6042,13 +6051,13 @@
         <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6075,31 +6084,31 @@
         <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Z37" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF37" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6117,25 +6126,25 @@
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6154,16 +6163,16 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6213,7 +6222,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6228,24 +6237,24 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6268,13 +6277,13 @@
         <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6325,7 +6334,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6340,28 +6349,28 @@
         <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6380,13 +6389,13 @@
         <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6437,7 +6446,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6452,10 +6461,10 @@
         <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -6466,10 +6475,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6492,13 +6501,13 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6549,7 +6558,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6564,24 +6573,24 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6604,13 +6613,13 @@
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6661,7 +6670,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6679,7 +6688,7 @@
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>80</v>
@@ -6690,10 +6699,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6719,10 +6728,10 @@
         <v>133</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>172</v>
@@ -6775,7 +6784,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6793,7 +6802,7 @@
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
@@ -6804,14 +6813,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6833,10 +6842,10 @@
         <v>133</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>172</v>
@@ -6891,7 +6900,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6920,10 +6929,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6946,16 +6955,16 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6981,13 +6990,13 @@
         <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>80</v>
@@ -7005,7 +7014,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7020,24 +7029,24 @@
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7060,13 +7069,13 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7117,7 +7126,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7135,21 +7144,21 @@
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7172,13 +7181,13 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7229,7 +7238,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7244,24 +7253,24 @@
         <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7284,13 +7293,13 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7341,7 +7350,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7356,24 +7365,24 @@
         <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7396,16 +7405,16 @@
         <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7455,7 +7464,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7470,24 +7479,24 @@
         <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7510,16 +7519,16 @@
         <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7569,7 +7578,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7584,28 +7593,28 @@
         <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7624,16 +7633,16 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7662,10 +7671,10 @@
         <v>112</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>80</v>
@@ -7683,7 +7692,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7698,28 +7707,28 @@
         <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7738,16 +7747,16 @@
         <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7797,7 +7806,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7812,24 +7821,24 @@
         <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7852,13 +7861,13 @@
         <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7909,7 +7918,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7927,7 +7936,7 @@
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
@@ -7938,10 +7947,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7964,13 +7973,13 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8021,7 +8030,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8039,7 +8048,7 @@
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
@@ -8050,10 +8059,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8079,10 +8088,10 @@
         <v>133</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="N55" t="s" s="2">
         <v>172</v>
@@ -8135,7 +8144,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8153,7 +8162,7 @@
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
@@ -8164,14 +8173,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8193,10 +8202,10 @@
         <v>133</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>172</v>
@@ -8251,7 +8260,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8280,14 +8289,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8306,16 +8315,16 @@
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8365,7 +8374,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>88</v>
@@ -8380,24 +8389,24 @@
         <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8420,13 +8429,13 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8456,28 +8465,28 @@
         <v>112</v>
       </c>
       <c r="Y58" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF58" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8495,7 +8504,7 @@
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
@@ -8506,10 +8515,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8532,13 +8541,13 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8589,7 +8598,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8607,7 +8616,7 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
@@ -8618,10 +8627,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8644,16 +8653,16 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8703,7 +8712,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8721,7 +8730,7 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
@@ -8732,10 +8741,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8758,16 +8767,16 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8817,7 +8826,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8835,7 +8844,7 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
@@ -8846,10 +8855,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8872,13 +8881,13 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8929,7 +8938,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8947,7 +8956,7 @@
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
@@ -8958,10 +8967,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8987,10 +8996,10 @@
         <v>133</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>172</v>
@@ -9043,7 +9052,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9061,7 +9070,7 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
@@ -9072,14 +9081,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9101,10 +9110,10 @@
         <v>133</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>172</v>
@@ -9159,7 +9168,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9188,10 +9197,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9217,10 +9226,10 @@
         <v>176</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9271,7 +9280,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9295,15 +9304,15 @@
         <v>80</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9326,13 +9335,13 @@
         <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9383,7 +9392,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9401,7 +9410,7 @@
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
@@ -9412,10 +9421,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9438,13 +9447,13 @@
         <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9474,28 +9483,28 @@
         <v>112</v>
       </c>
       <c r="Y67" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF67" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9513,21 +9522,21 @@
         <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9550,13 +9559,13 @@
         <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9583,31 +9592,31 @@
         <v>80</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Y68" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF68" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9625,21 +9634,21 @@
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9662,19 +9671,19 @@
         <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -9699,13 +9708,13 @@
         <v>80</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>80</v>
@@ -9723,7 +9732,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9741,21 +9750,21 @@
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9778,13 +9787,13 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9814,28 +9823,28 @@
         <v>112</v>
       </c>
       <c r="Y70" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF70" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -9853,21 +9862,21 @@
         <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9890,13 +9899,13 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9926,28 +9935,28 @@
         <v>112</v>
       </c>
       <c r="Y71" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF71" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -9965,21 +9974,21 @@
         <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10002,13 +10011,13 @@
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10059,7 +10068,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10077,21 +10086,21 @@
         <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10114,13 +10123,13 @@
         <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10147,31 +10156,31 @@
         <v>80</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Y73" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF73" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10189,21 +10198,21 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10226,16 +10235,16 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10285,7 +10294,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10303,7 +10312,7 @@
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
@@ -10314,10 +10323,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10340,13 +10349,13 @@
         <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10397,7 +10406,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10415,7 +10424,7 @@
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
@@ -10426,10 +10435,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10455,10 +10464,10 @@
         <v>133</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="N76" t="s" s="2">
         <v>172</v>
@@ -10511,7 +10520,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -10529,7 +10538,7 @@
         <v>80</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>80</v>
@@ -10540,14 +10549,14 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -10569,10 +10578,10 @@
         <v>133</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N77" t="s" s="2">
         <v>172</v>
@@ -10627,7 +10636,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -10656,10 +10665,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10682,13 +10691,13 @@
         <v>80</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10739,7 +10748,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>88</v>
@@ -10754,24 +10763,24 @@
         <v>100</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10797,13 +10806,13 @@
         <v>108</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10829,13 +10838,13 @@
         <v>80</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>80</v>
@@ -10853,7 +10862,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -10871,7 +10880,7 @@
         <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>80</v>
@@ -10882,10 +10891,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10908,16 +10917,16 @@
         <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -10943,13 +10952,13 @@
         <v>80</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>80</v>
@@ -10967,7 +10976,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -10996,10 +11005,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11022,13 +11031,13 @@
         <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11079,7 +11088,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -11097,7 +11106,7 @@
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>80</v>
@@ -11108,10 +11117,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11134,13 +11143,13 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11191,7 +11200,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11206,24 +11215,24 @@
         <v>100</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11246,16 +11255,16 @@
         <v>80</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11305,7 +11314,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -11320,10 +11329,10 @@
         <v>100</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>80</v>

--- a/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-Encounter.xlsx
+++ b/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-Encounter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2997" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2925" uniqueCount="499">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T14:08:23+00:00</t>
+    <t>2025-07-21T08:20:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -522,6 +522,9 @@
 </t>
   </si>
   <si>
+    <t>Libellé mode de sortie</t>
+  </si>
+  <si>
     <t>Libellé du mode de sortie du séjour.</t>
   </si>
   <si>
@@ -600,24 +603,6 @@
   </si>
   <si>
     <t>Identifiant métier unique du séjour</t>
-  </si>
-  <si>
-    <t>Encounter.identifier:idAdminStay</t>
-  </si>
-  <si>
-    <t>idAdminStay</t>
-  </si>
-  <si>
-    <t>Numéro de dossier administratif du séjour</t>
-  </si>
-  <si>
-    <t>Encounter.identifier:idProvenanceStay</t>
-  </si>
-  <si>
-    <t>idProvenanceStay</t>
-  </si>
-  <si>
-    <t>Numéro de dossier administratif dans l'ESSMS de provenance</t>
   </si>
   <si>
     <t>Encounter.status</t>
@@ -1543,7 +1528,7 @@
     <t>Encounter.serviceProvider</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-Organization)
 </t>
   </si>
   <si>
@@ -1885,7 +1870,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN83"/>
+  <dimension ref="A1:AN81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3450,10 +3435,10 @@
         <v>161</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3533,13 +3518,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>80</v>
@@ -3561,13 +3546,13 @@
         <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3647,14 +3632,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3676,16 +3661,16 @@
         <v>133</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>80</v>
@@ -3734,7 +3719,7 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3763,10 +3748,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3789,13 +3774,13 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3834,7 +3819,7 @@
         <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
@@ -3844,7 +3829,7 @@
         <v>137</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3859,27 +3844,27 @@
         <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>80</v>
@@ -3901,13 +3886,13 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3958,7 +3943,7 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3973,34 +3958,32 @@
         <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="C19" t="s" s="2">
         <v>188</v>
       </c>
+      <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>88</v>
@@ -4009,21 +3992,23 @@
         <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>176</v>
+        <v>108</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>189</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -4048,13 +4033,13 @@
         <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>80</v>
+        <v>194</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>80</v>
@@ -4072,13 +4057,13 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>80</v>
@@ -4087,28 +4072,26 @@
         <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>183</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
         <v>80</v>
       </c>
@@ -4117,7 +4100,7 @@
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>80</v>
@@ -4126,18 +4109,20 @@
         <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>80</v>
@@ -4186,7 +4171,7 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4201,24 +4186,24 @@
         <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>183</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4226,7 +4211,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>88</v>
@@ -4235,23 +4220,21 @@
         <v>80</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>108</v>
+        <v>206</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>80</v>
@@ -4276,13 +4259,13 @@
         <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>198</v>
+        <v>80</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>80</v>
@@ -4300,10 +4283,10 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>88</v>
@@ -4312,31 +4295,31 @@
         <v>80</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>202</v>
+        <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>203</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4355,16 +4338,16 @@
         <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>205</v>
+        <v>133</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4414,7 +4397,7 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4426,13 +4409,13 @@
         <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>80</v>
@@ -4443,42 +4426,46 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>80</v>
       </c>
@@ -4526,25 +4513,25 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>209</v>
+        <v>131</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>80</v>
@@ -4555,21 +4542,21 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
@@ -4581,17 +4568,15 @@
         <v>80</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -4616,13 +4601,13 @@
         <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>80</v>
+        <v>194</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>80</v>
@@ -4640,25 +4625,25 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>80</v>
@@ -4669,46 +4654,42 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>133</v>
+        <v>221</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4756,25 +4737,25 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>80</v>
@@ -4808,16 +4789,16 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>108</v>
+        <v>225</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4844,13 +4825,13 @@
         <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>80</v>
@@ -4886,21 +4867,21 @@
         <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>80</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4908,10 +4889,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
@@ -4923,13 +4904,13 @@
         <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4980,13 +4961,13 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>80</v>
@@ -4998,7 +4979,7 @@
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>80</v>
@@ -5009,10 +4990,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5020,7 +5001,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>88</v>
@@ -5032,16 +5013,16 @@
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5068,13 +5049,13 @@
         <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>234</v>
+        <v>80</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>80</v>
@@ -5092,10 +5073,10 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>88</v>
@@ -5104,31 +5085,31 @@
         <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>237</v>
+        <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>238</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5147,15 +5128,17 @@
         <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>205</v>
+        <v>133</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>80</v>
@@ -5204,7 +5187,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5216,13 +5199,13 @@
         <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
@@ -5233,42 +5216,46 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5316,25 +5303,25 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>209</v>
+        <v>131</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>80</v>
@@ -5345,21 +5332,21 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -5371,17 +5358,15 @@
         <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>133</v>
+        <v>225</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -5406,13 +5391,13 @@
         <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>80</v>
+        <v>228</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>80</v>
+        <v>229</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>80</v>
@@ -5430,25 +5415,25 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
@@ -5459,46 +5444,42 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>133</v>
+        <v>221</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>80</v>
       </c>
@@ -5546,25 +5527,25 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
@@ -5575,10 +5556,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5586,10 +5567,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -5598,18 +5579,20 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -5634,13 +5617,13 @@
         <v>80</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>80</v>
@@ -5658,13 +5641,13 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>80</v>
@@ -5673,24 +5656,24 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>209</v>
+        <v>255</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>80</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5698,7 +5681,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>88</v>
@@ -5710,16 +5693,16 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5746,13 +5729,13 @@
         <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>80</v>
+        <v>261</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>80</v>
@@ -5770,10 +5753,10 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>88</v>
@@ -5785,24 +5768,24 @@
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>80</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5813,7 +5796,7 @@
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>80</v>
@@ -5822,20 +5805,18 @@
         <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -5860,13 +5841,13 @@
         <v>80</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>80</v>
@@ -5884,13 +5865,13 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>80</v>
@@ -5899,32 +5880,32 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>259</v>
+        <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>80</v>
+        <v>271</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>88</v>
@@ -5939,15 +5920,17 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -5972,13 +5955,13 @@
         <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>266</v>
+        <v>80</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>80</v>
@@ -5996,7 +5979,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6011,24 +5994,24 @@
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>209</v>
+        <v>277</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>80</v>
+        <v>278</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>267</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6039,7 +6022,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
@@ -6048,16 +6031,16 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6084,13 +6067,13 @@
         <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>270</v>
+        <v>80</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>271</v>
+        <v>80</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>80</v>
@@ -6108,13 +6091,13 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>80</v>
@@ -6123,35 +6106,35 @@
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>80</v>
+        <v>284</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>272</v>
+        <v>204</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
@@ -6160,20 +6143,18 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6222,13 +6203,13 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>80</v>
@@ -6237,24 +6218,24 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>283</v>
+        <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>284</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6277,13 +6258,13 @@
         <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>286</v>
+        <v>200</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6334,7 +6315,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6349,35 +6330,35 @@
         <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>209</v>
+        <v>298</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>291</v>
+        <v>299</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>293</v>
+        <v>80</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
@@ -6389,13 +6370,13 @@
         <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>294</v>
+        <v>206</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>295</v>
+        <v>207</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6446,25 +6427,25 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>292</v>
+        <v>209</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>297</v>
+        <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>298</v>
+        <v>204</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -6475,14 +6456,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6498,18 +6479,20 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>205</v>
+        <v>133</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>300</v>
+        <v>211</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -6558,7 +6541,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>299</v>
+        <v>213</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6570,59 +6553,63 @@
         <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>302</v>
+        <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>304</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>80</v>
       </c>
@@ -6670,25 +6657,25 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>209</v>
+        <v>131</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>80</v>
@@ -6699,14 +6686,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6722,19 +6709,19 @@
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>133</v>
+        <v>247</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>216</v>
+        <v>304</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>217</v>
+        <v>305</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>172</v>
+        <v>306</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6760,13 +6747,13 @@
         <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>80</v>
+        <v>228</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>80</v>
+        <v>305</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>80</v>
+        <v>307</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>80</v>
@@ -6784,7 +6771,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>218</v>
+        <v>303</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6796,63 +6783,59 @@
         <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>80</v>
+        <v>308</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>209</v>
+        <v>309</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>80</v>
+        <v>310</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>133</v>
+        <v>221</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>221</v>
+        <v>312</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>80</v>
       </c>
@@ -6900,39 +6883,39 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>223</v>
+        <v>311</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>131</v>
+        <v>314</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>80</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6943,7 +6926,7 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
@@ -6955,17 +6938,15 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>252</v>
+        <v>317</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -6990,13 +6971,13 @@
         <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>312</v>
+        <v>80</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>80</v>
@@ -7014,13 +6995,13 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>80</v>
@@ -7029,24 +7010,24 @@
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>80</v>
+        <v>322</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7057,7 +7038,7 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
@@ -7066,16 +7047,16 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>226</v>
+        <v>325</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7126,13 +7107,13 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>80</v>
@@ -7141,24 +7122,24 @@
         <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>80</v>
+        <v>292</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>320</v>
+        <v>329</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7178,18 +7159,20 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>322</v>
+        <v>221</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7238,7 +7221,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7253,24 +7236,24 @@
         <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>328</v>
+        <v>337</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7281,7 +7264,7 @@
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
@@ -7290,18 +7273,20 @@
         <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7350,13 +7335,13 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>80</v>
@@ -7365,35 +7350,35 @@
         <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>334</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>80</v>
+        <v>346</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -7402,19 +7387,19 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7440,13 +7425,13 @@
         <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>80</v>
+        <v>351</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>80</v>
@@ -7464,13 +7449,13 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>80</v>
@@ -7479,35 +7464,35 @@
         <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>342</v>
+        <v>355</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>80</v>
+        <v>346</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
@@ -7516,19 +7501,19 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7578,13 +7563,13 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>80</v>
@@ -7593,28 +7578,28 @@
         <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>80</v>
+        <v>354</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>351</v>
+        <v>80</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7633,17 +7618,15 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>252</v>
+        <v>200</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -7668,13 +7651,13 @@
         <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>356</v>
+        <v>80</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>80</v>
@@ -7692,7 +7675,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7707,35 +7690,35 @@
         <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>357</v>
+        <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>359</v>
+        <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>360</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>351</v>
+        <v>80</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -7744,20 +7727,18 @@
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>362</v>
+        <v>206</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>363</v>
+        <v>207</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -7806,31 +7787,31 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>361</v>
+        <v>209</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>357</v>
+        <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>358</v>
+        <v>204</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>359</v>
+        <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>360</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53">
@@ -7842,7 +7823,7 @@
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7858,18 +7839,20 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>205</v>
+        <v>133</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>365</v>
+        <v>211</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -7918,7 +7901,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>364</v>
+        <v>213</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7930,13 +7913,13 @@
         <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>367</v>
+        <v>204</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
@@ -7947,42 +7930,46 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8030,25 +8017,25 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>209</v>
+        <v>131</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
@@ -8059,21 +8046,21 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>169</v>
+        <v>367</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
@@ -8082,19 +8069,19 @@
         <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>133</v>
+        <v>368</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>216</v>
+        <v>369</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>217</v>
+        <v>370</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>172</v>
+        <v>349</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8144,75 +8131,71 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>218</v>
+        <v>366</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>80</v>
+        <v>371</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>209</v>
+        <v>372</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>80</v>
+        <v>354</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>80</v>
+        <v>373</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>133</v>
+        <v>247</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>221</v>
+        <v>375</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8236,13 +8219,13 @@
         <v>80</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>80</v>
+        <v>377</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>80</v>
+        <v>378</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>80</v>
@@ -8260,25 +8243,25 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>223</v>
+        <v>374</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
@@ -8289,18 +8272,18 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>372</v>
+        <v>80</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>88</v>
@@ -8312,20 +8295,18 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8374,10 +8355,10 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>88</v>
@@ -8389,24 +8370,24 @@
         <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>376</v>
+        <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>359</v>
+        <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>378</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8417,7 +8398,7 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
@@ -8429,15 +8410,17 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>252</v>
+        <v>385</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -8462,13 +8445,13 @@
         <v>80</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>382</v>
+        <v>80</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>383</v>
+        <v>80</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>80</v>
@@ -8486,13 +8469,13 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>80</v>
@@ -8504,7 +8487,7 @@
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>209</v>
+        <v>389</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
@@ -8515,10 +8498,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8541,15 +8524,17 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>385</v>
+        <v>200</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -8598,7 +8583,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8616,7 +8601,7 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
@@ -8627,10 +8612,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8641,7 +8626,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
@@ -8653,17 +8638,15 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>390</v>
+        <v>206</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>391</v>
+        <v>207</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -8712,25 +8695,25 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>389</v>
+        <v>209</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>394</v>
+        <v>204</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
@@ -8741,21 +8724,21 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
@@ -8767,16 +8750,16 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>205</v>
+        <v>133</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>396</v>
+        <v>211</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>397</v>
+        <v>212</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>398</v>
+        <v>173</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8826,25 +8809,25 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>395</v>
+        <v>213</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>399</v>
+        <v>204</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
@@ -8855,42 +8838,46 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
       </c>
@@ -8938,25 +8925,25 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>209</v>
+        <v>131</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
@@ -8967,21 +8954,21 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
@@ -8993,17 +8980,15 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>216</v>
+        <v>399</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -9052,31 +9037,31 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>218</v>
+        <v>398</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>80</v>
+        <v>401</v>
       </c>
     </row>
     <row r="64">
@@ -9088,39 +9073,35 @@
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>133</v>
+        <v>403</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>221</v>
+        <v>404</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9168,25 +9149,25 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>223</v>
+        <v>402</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>131</v>
+        <v>406</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
@@ -9197,10 +9178,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9223,13 +9204,13 @@
         <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>176</v>
+        <v>247</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9256,13 +9237,13 @@
         <v>80</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>80</v>
+        <v>410</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>80</v>
+        <v>411</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>80</v>
@@ -9280,7 +9261,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9298,21 +9279,21 @@
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>181</v>
+        <v>412</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>406</v>
+        <v>413</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9335,13 +9316,13 @@
         <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>408</v>
+        <v>247</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9368,13 +9349,13 @@
         <v>80</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>80</v>
+        <v>417</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>80</v>
+        <v>418</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>80</v>
@@ -9392,7 +9373,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9410,21 +9391,21 @@
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>411</v>
+        <v>204</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>80</v>
+        <v>419</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9435,7 +9416,7 @@
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>80</v>
@@ -9447,16 +9428,20 @@
         <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
       </c>
@@ -9480,13 +9465,13 @@
         <v>80</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>112</v>
+        <v>251</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>80</v>
@@ -9504,13 +9489,13 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>80</v>
@@ -9522,21 +9507,21 @@
         <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>418</v>
+        <v>428</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9547,7 +9532,7 @@
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>80</v>
@@ -9559,13 +9544,13 @@
         <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9592,13 +9577,13 @@
         <v>80</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>256</v>
+        <v>112</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>80</v>
@@ -9616,13 +9601,13 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>80</v>
@@ -9634,21 +9619,21 @@
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>209</v>
+        <v>434</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>424</v>
+        <v>435</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9671,20 +9656,16 @@
         <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>80</v>
       </c>
@@ -9708,13 +9689,13 @@
         <v>80</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>256</v>
+        <v>112</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>80</v>
@@ -9732,7 +9713,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9750,21 +9731,21 @@
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9775,7 +9756,7 @@
         <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>80</v>
@@ -9787,13 +9768,13 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>252</v>
+        <v>403</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9820,13 +9801,13 @@
         <v>80</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>437</v>
+        <v>80</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>438</v>
+        <v>80</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>80</v>
@@ -9844,13 +9825,13 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>80</v>
@@ -9862,21 +9843,21 @@
         <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>440</v>
+        <v>447</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9887,7 +9868,7 @@
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>80</v>
@@ -9899,13 +9880,13 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9932,13 +9913,13 @@
         <v>80</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>112</v>
+        <v>251</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>80</v>
@@ -9956,13 +9937,13 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>80</v>
@@ -9974,21 +9955,21 @@
         <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>447</v>
+        <v>454</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9999,7 +9980,7 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>80</v>
@@ -10011,15 +9992,17 @@
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>408</v>
+        <v>200</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>458</v>
+      </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>80</v>
@@ -10068,13 +10051,13 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>80</v>
@@ -10086,21 +10069,21 @@
         <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>452</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10123,13 +10106,13 @@
         <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>252</v>
+        <v>206</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>454</v>
+        <v>207</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>455</v>
+        <v>208</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10156,13 +10139,13 @@
         <v>80</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>456</v>
+        <v>80</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>457</v>
+        <v>80</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>80</v>
@@ -10180,7 +10163,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>453</v>
+        <v>209</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10192,31 +10175,31 @@
         <v>80</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>458</v>
+        <v>204</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>459</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10235,16 +10218,16 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>205</v>
+        <v>133</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>461</v>
+        <v>211</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>462</v>
+        <v>212</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>463</v>
+        <v>173</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10294,7 +10277,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>460</v>
+        <v>213</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10306,13 +10289,13 @@
         <v>80</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>464</v>
+        <v>204</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
@@ -10323,42 +10306,46 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>80</v>
       </c>
@@ -10406,25 +10393,25 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>209</v>
+        <v>131</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
@@ -10435,21 +10422,21 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>80</v>
@@ -10461,17 +10448,15 @@
         <v>80</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>133</v>
+        <v>464</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>216</v>
+        <v>465</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>80</v>
@@ -10520,75 +10505,73 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>218</v>
+        <v>463</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>80</v>
+        <v>467</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>209</v>
+        <v>321</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>80</v>
+        <v>468</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>80</v>
+        <v>469</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>221</v>
+        <v>471</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>222</v>
+        <v>472</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>80</v>
       </c>
@@ -10612,13 +10595,13 @@
         <v>80</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>80</v>
+        <v>474</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>80</v>
+        <v>475</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>80</v>
@@ -10636,25 +10619,25 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>223</v>
+        <v>470</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>131</v>
+        <v>476</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>80</v>
@@ -10665,10 +10648,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10676,7 +10659,7 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>88</v>
@@ -10691,15 +10674,17 @@
         <v>80</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>469</v>
+        <v>247</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>80</v>
@@ -10724,13 +10709,13 @@
         <v>80</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>80</v>
+        <v>481</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>80</v>
+        <v>482</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>80</v>
@@ -10748,10 +10733,10 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>88</v>
@@ -10763,24 +10748,24 @@
         <v>100</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>472</v>
+        <v>80</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>326</v>
+        <v>80</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>473</v>
+        <v>80</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>474</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10803,17 +10788,15 @@
         <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>108</v>
+        <v>221</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>80</v>
@@ -10838,13 +10821,13 @@
         <v>80</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>479</v>
+        <v>80</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>80</v>
@@ -10862,7 +10845,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -10880,7 +10863,7 @@
         <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>481</v>
+        <v>314</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>80</v>
@@ -10891,10 +10874,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10902,7 +10885,7 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>88</v>
@@ -10917,17 +10900,15 @@
         <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>252</v>
+        <v>487</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>485</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>80</v>
@@ -10952,31 +10933,31 @@
         <v>80</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="Y80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF80" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -10991,24 +10972,24 @@
         <v>100</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>80</v>
+        <v>490</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>80</v>
+        <v>491</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11031,15 +11012,17 @@
         <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>226</v>
+        <v>493</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>495</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>496</v>
+      </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>80</v>
@@ -11088,7 +11071,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -11103,241 +11086,15 @@
         <v>100</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>80</v>
+        <v>497</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>319</v>
+        <v>498</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="O83" s="2"/>
-      <c r="P83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN83" t="s" s="2">
         <v>80</v>
       </c>
     </row>
